--- a/Data/Data_info.xlsx
+++ b/Data/Data_info.xlsx
@@ -1,37 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24603"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J14838\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_00A65D3F3CB46B85E1F718FC21627F112698D07B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE130D6E-5700-4728-A5A8-60B6FBBAF678}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+  <si>
+    <t>Category</t>
+  </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>Time horizon</t>
+  </si>
+  <si>
+    <t>Time frequency</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
     <t xml:space="preserve">Italian GDP </t>
   </si>
   <si>
+    <t>1995Q1- 2021Q2</t>
+  </si>
+  <si>
+    <t>Quaterly</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/NAMQ_10_GDP__custom_1385259/default/table?lang=en</t>
+  </si>
+  <si>
     <t>Final Domestic Consumption</t>
   </si>
   <si>
@@ -41,6 +81,12 @@
     <t>Consumption: Public</t>
   </si>
   <si>
+    <t>Main GDP aggregates per capita</t>
+  </si>
+  <si>
+    <t>Scaricati per tutta EU</t>
+  </si>
+  <si>
     <t>GFCF (Gross fixed capital formation)</t>
   </si>
   <si>
@@ -74,12 +120,30 @@
     <t>Unemployment Rate</t>
   </si>
   <si>
+    <t>Volendo anche mensili</t>
+  </si>
+  <si>
+    <t>1966Q3 - 2021Q1</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/unemp/unemployment-rate.htm</t>
+  </si>
+  <si>
     <t>Activity Rate</t>
   </si>
   <si>
     <t>Employment Rate</t>
   </si>
   <si>
+    <t>1978Q2  - 2021Q1</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/emp/employment-rate.htm</t>
+  </si>
+  <si>
     <t>Industrial Production</t>
   </si>
   <si>
@@ -180,46 +244,13 @@
   </si>
   <si>
     <t>GFCF : Machines, equipment and armament</t>
-  </si>
-  <si>
-    <t>Time horizon</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>https://ec.europa.eu/eurostat/databrowser/view/NAMQ_10_GDP__custom_1385259/default/table?lang=en</t>
-  </si>
-  <si>
-    <t>Eurostat</t>
-  </si>
-  <si>
-    <t>Quaterly</t>
-  </si>
-  <si>
-    <t>Time frequency</t>
-  </si>
-  <si>
-    <t>1995Q1- 2021Q2</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>Main GDP aggregates per capita</t>
-  </si>
-  <si>
-    <t>Scaricati per tutta EU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +274,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -258,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -281,12 +318,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,9 +356,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,577 +647,655 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="71.81640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.08984375" customWidth="1"/>
-    <col min="6" max="6" width="93.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="37.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="93.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1"/>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="45">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="6"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="45">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="6"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="45">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="45">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="5"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="45">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" ht="45">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="30">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="30">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="30">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="15">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="5"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="15">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="15">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="30">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="5"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="30">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="5"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{56AF6289-60FB-486B-B4A2-3BF87030A414}"/>
+    <hyperlink ref="G17" r:id="rId3" xr:uid="{10290503-97AB-4901-BE39-21DDE93CFE8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data_info.xlsx
+++ b/Data/Data_info.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24603"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J14838\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J14838\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_00A65D3F3CB46B85E1F718FC21627F112698D07B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE130D6E-5700-4728-A5A8-60B6FBBAF678}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>Category</t>
   </si>
@@ -105,9 +104,6 @@
     <t>GFCF: Other Buildings &amp; Structures</t>
   </si>
   <si>
-    <t>Net exports</t>
-  </si>
-  <si>
     <t>Exports of Goods &amp; Services</t>
   </si>
   <si>
@@ -174,9 +170,6 @@
     <t>Relative variation of the available income for households (constant price, base year 2005)</t>
   </si>
   <si>
-    <t>Long term Italian yield (Italian BTP)</t>
-  </si>
-  <si>
     <t>Compensation of employees in industry (Level, current prices, SA, millions euros) - Moyenne Annuelle</t>
   </si>
   <si>
@@ -195,9 +188,6 @@
     <t>Fiscal pressure (Level, current prices) - Moyenne Annuelle</t>
   </si>
   <si>
-    <t>EMU GDP volume (Level) - Moyenne Annuelle</t>
-  </si>
-  <si>
     <t>Bloomberg European Dated Brent Forties Oseberg Ekofisk (BFOE) Price</t>
   </si>
   <si>
@@ -244,13 +234,100 @@
   </si>
   <si>
     <t>GFCF : Machines, equipment and armament</t>
+  </si>
+  <si>
+    <t>ECONOMY</t>
+  </si>
+  <si>
+    <t>FINANCE</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/interest/long-term-interest-rates.htm</t>
+  </si>
+  <si>
+    <t>LONG TERM interest rate (Italy)</t>
+  </si>
+  <si>
+    <t>1991Q1 -2021Q2</t>
+  </si>
+  <si>
+    <t>SHORT TERM interest rate (Italy)</t>
+  </si>
+  <si>
+    <t>1974Q1 -2021Q2</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/interest/short-term-interest-rates.htm#indicator-chart</t>
+  </si>
+  <si>
+    <t>Tax wedge</t>
+  </si>
+  <si>
+    <t>yearly</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/tax/tax-wedge.htm#indicator-chart</t>
+  </si>
+  <si>
+    <t>2000-2020</t>
+  </si>
+  <si>
+    <t>all country</t>
+  </si>
+  <si>
+    <t>TAX</t>
+  </si>
+  <si>
+    <t>JOB</t>
+  </si>
+  <si>
+    <t>Earnings and wages - Average wages - OECD Data</t>
+  </si>
+  <si>
+    <t>Average wages</t>
+  </si>
+  <si>
+    <t>1990 - 2020</t>
+  </si>
+  <si>
+    <t>GDP and spending - Quarterly GDP - OECD Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDP AREA EURO </t>
+  </si>
+  <si>
+    <t>PIU VERSIONI SCARICATE</t>
+  </si>
+  <si>
+    <t>1947Q1 -2021Q2</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>Total official and private flows</t>
+  </si>
+  <si>
+    <t>1960-2019</t>
+  </si>
+  <si>
+    <t>Development resource flows - Total official and private flows - OECD Data</t>
+  </si>
+  <si>
+    <t>Net trade</t>
+  </si>
+  <si>
+    <t>https://data.oecd.org/trade/trade-in-goods-and-services.htm</t>
+  </si>
+  <si>
+    <t>1970- 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -331,13 +408,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,10 +467,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink" xfId="2"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,24 +761,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="37.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="93.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="47.08984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" customWidth="1"/>
+    <col min="7" max="7" width="93.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -687,8 +803,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
-      <c r="A2" s="10"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
@@ -706,104 +824,174 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
       <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
       <c r="B4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
       <c r="B5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="10"/>
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="15">
-      <c r="A7" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
       <c r="B7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>93</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="15">
-      <c r="A11" s="10"/>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
       <c r="B11" s="10" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="1"/>
@@ -811,10 +999,10 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
@@ -822,43 +1010,65 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="10"/>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="B14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="15">
+        <v>90</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="15">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1"/>
@@ -866,29 +1076,21 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1"/>
@@ -896,31 +1098,21 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1"/>
@@ -928,10 +1120,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
@@ -939,10 +1131,10 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1"/>
@@ -950,10 +1142,10 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
@@ -961,43 +1153,43 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="1"/>
@@ -1005,10 +1197,10 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="30">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
@@ -1016,10 +1208,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
@@ -1027,10 +1219,10 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="1"/>
@@ -1038,10 +1230,10 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1"/>
@@ -1049,10 +1241,10 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="1"/>
@@ -1060,43 +1252,43 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="30">
+    <row r="33" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C33" s="6"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="45">
+    <row r="34" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C34" s="6"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C35" s="6"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="30">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1"/>
@@ -1104,10 +1296,10 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1"/>
@@ -1115,10 +1307,10 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1"/>
@@ -1126,10 +1318,10 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15">
+    <row r="39" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1"/>
@@ -1137,10 +1329,10 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15">
+    <row r="40" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="1"/>
@@ -1148,10 +1340,10 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15">
+    <row r="41" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="1"/>
@@ -1159,10 +1351,10 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15">
+    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="1"/>
@@ -1170,10 +1362,10 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="15">
+    <row r="43" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="1"/>
@@ -1181,10 +1373,10 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="30">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="1"/>
@@ -1192,10 +1384,10 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="1"/>
@@ -1203,10 +1395,10 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="1"/>
@@ -1214,10 +1406,10 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="1"/>
@@ -1225,10 +1417,10 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="1"/>
@@ -1236,10 +1428,10 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="1"/>
@@ -1247,10 +1439,10 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="30">
+    <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="1"/>
@@ -1258,10 +1450,10 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="1"/>
@@ -1269,10 +1461,10 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15">
+    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="1"/>
@@ -1280,10 +1472,10 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="1"/>
@@ -1291,12 +1483,80 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G19" r:id="rId2" xr:uid="{56AF6289-60FB-486B-B4A2-3BF87030A414}"/>
-    <hyperlink ref="G17" r:id="rId3" xr:uid="{10290503-97AB-4901-BE39-21DDE93CFE8E}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5" location="indicator-chart"/>
+    <hyperlink ref="G10" r:id="rId6" location="indicator-chart"/>
+    <hyperlink ref="G13" r:id="rId7" display="https://data.oecd.org/earnwage/average-wages.htm"/>
+    <hyperlink ref="G4" r:id="rId8" display="https://data.oecd.org/gdp/quarterly-gdp.htm"/>
+    <hyperlink ref="G14" r:id="rId9" display="https://data.oecd.org/drf/total-official-and-private-flows.htm"/>
+    <hyperlink ref="G7" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>